--- a/Sample_Scenarios_Data.xlsx
+++ b/Sample_Scenarios_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Box\my collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018B2E0C-AA20-404F-BBF8-B6EC5B75D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E513F1D-2315-44B8-8700-CBE87A3F9106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{6B532636-AD0D-4C97-BF88-402CF9173A2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Scenarios</t>
   </si>
@@ -392,13 +392,74 @@
   <si>
     <t>CEL-like Attribute Rule</t>
   </si>
+  <si>
+    <t>user["urn:ietf:params:scim:schemas:extension:ibm:2.0:User"].pwdChangedTime &gt; now - duration('720h')</t>
+  </si>
+  <si>
+    <t>Check whether the user password has been changed under 30 days (720 hours)
+The duration() function accepts time units in hours (h), minutes (m) or seconds (s)</t>
+  </si>
+  <si>
+    <t>Check whether the user password has been changed under 15 days (21600 minutes)
+The duration() function accepts time units in hours (h), minutes (m) or seconds (s)</t>
+  </si>
+  <si>
+    <t>user["urn:ietf:params:scim:schemas:extension:ibm:2.0:User"].pwdChangedTime &gt; now - duration('21600m')</t>
+  </si>
+  <si>
+    <t>Check whether the user password has been changed under 1 day (86400 seconds)
+The duration() function accepts time units in hours (h), minutes (m) or seconds (s)</t>
+  </si>
+  <si>
+    <t>user["urn:ietf:params:scim:schemas:extension:ibm:2.0:User"].pwdChangedTime &gt; now - duration('86400s')</t>
+  </si>
+  <si>
+    <t>user["urn:ietf:params:scim:schemas:extension:ibm:2.0:User"]</t>
+  </si>
+  <si>
+    <t>Get user authentication information object (e.g. last login, password change date and time, etc…)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sample Scenarios
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This file contains information on how to reference the user object to get user information using advanced attributes</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -426,10 +487,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4424420E-440E-41DE-AED5-648155FA0DDF}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,463 +845,504 @@
     <col min="2" max="2" width="98.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>105</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="57" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="58" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>109</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="60" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sample_Scenarios_Data.xlsx
+++ b/Sample_Scenarios_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Box\my collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E513F1D-2315-44B8-8700-CBE87A3F9106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C631E2-BA09-4C22-8F6E-1A5F1D1F61F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{6B532636-AD0D-4C97-BF88-402CF9173A2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Scenarios</t>
   </si>
@@ -434,6 +434,35 @@
       </rPr>
       <t>This file contains information on how to reference the user object to get user information using advanced attributes</t>
     </r>
+  </si>
+  <si>
+    <t>statements:
+    - if:
+        match: true
+        block:
+            - return: string("hello")</t>
+  </si>
+  <si>
+    <t>Simple if statement example</t>
+  </si>
+  <si>
+    <t>If statement with elseif for fallback conditions</t>
+  </si>
+  <si>
+    <t>statements:
+    - context: example := "hello2"
+    - if:
+        match: context.example == "hello"
+        block:
+            - return: string("output")
+        elseifs:
+            - match: context.example == "hello1"
+              block:
+                - return: string("output1")
+            - match: context.example == "hello2"
+              block:
+                - return: string("output2")
+    - return: ""</t>
   </si>
 </sst>
 </file>
@@ -833,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4424420E-440E-41DE-AED5-648155FA0DDF}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1339,6 +1368,22 @@
         <v>119</v>
       </c>
     </row>
+    <row r="63" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Sample_Scenarios_Data.xlsx
+++ b/Sample_Scenarios_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Box\my collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C631E2-BA09-4C22-8F6E-1A5F1D1F61F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA081C2-7EB3-4C79-B256-19776E0F814F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{6B532636-AD0D-4C97-BF88-402CF9173A2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Scenarios</t>
   </si>
@@ -418,22 +418,6 @@
   </si>
   <si>
     <t>Get user authentication information object (e.g. last login, password change date and time, etc…)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sample Scenarios
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This file contains information on how to reference the user object to get user information using advanced attributes</t>
-    </r>
   </si>
   <si>
     <t>statements:
@@ -463,6 +447,55 @@
               block:
                 - return: string("output2")
     - return: ""</t>
+  </si>
+  <si>
+    <t>int(timestamp(now) - timestamp(user.meta.created)) / 86400</t>
+  </si>
+  <si>
+    <t>Find the number of days the user account was created
+The function int() is used to convert the duration type to a integer</t>
+  </si>
+  <si>
+    <t>Simple if else example</t>
+  </si>
+  <si>
+    <t>statements:
+    - if:
+        match: false
+        block:
+            - return: string("hello")
+        else:
+            - return: string("goodbye")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sample Scenarios
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This file contains information on how to reference the user object to get user information using advanced attributes as well as simple examples</t>
+    </r>
+  </si>
+  <si>
+    <t>Simple multi-line rule to return a string value</t>
+  </si>
+  <si>
+    <t>statements:
+    - return: string("some value")</t>
+  </si>
+  <si>
+    <t>Simple multi-line rule to return a boolean value</t>
+  </si>
+  <si>
+    <t>statements:
+    - return: true</t>
   </si>
 </sst>
 </file>
@@ -522,11 +555,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4424420E-440E-41DE-AED5-648155FA0DDF}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,10 +908,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1370,18 +1403,50 @@
     </row>
     <row r="63" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="1" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Scenarios_Data.xlsx
+++ b/Sample_Scenarios_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Box\my collections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA081C2-7EB3-4C79-B256-19776E0F814F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F04AE5-F0D5-4693-BC08-AFA5316FCF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{6B532636-AD0D-4C97-BF88-402CF9173A2E}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
-    <t>Scenarios</t>
-  </si>
-  <si>
     <t>Get user emails array</t>
   </si>
   <si>
@@ -496,6 +493,9 @@
   <si>
     <t>statements:
     - return: true</t>
+  </si>
+  <si>
+    <t>Advanced Attribute Code Scenario</t>
   </si>
 </sst>
 </file>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4424420E-440E-41DE-AED5-648155FA0DDF}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,544 +909,544 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
         <v>71</v>
-      </c>
-      <c r="B38" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
         <v>86</v>
-      </c>
-      <c r="B50" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
         <v>103</v>
-      </c>
-      <c r="B55" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
         <v>105</v>
-      </c>
-      <c r="B56" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" t="s">
         <v>109</v>
-      </c>
-      <c r="B59" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
         <v>116</v>
-      </c>
-      <c r="B61" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" t="s">
         <v>118</v>
-      </c>
-      <c r="B62" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
